--- a/ExportExcel.xlsx
+++ b/ExportExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -38,10 +38,94 @@
     <t>comment</t>
   </si>
   <si>
-    <t>7 plus</t>
-  </si>
-  <si>
-    <t>ko co gi</t>
+    <t>Samsung Galaxy Z Flip 4</t>
+  </si>
+  <si>
+    <t>Screenshot 2022-11-22 102457.png</t>
+  </si>
+  <si>
+    <t>hhdj</t>
+  </si>
+  <si>
+    <t>Galaxy A21s</t>
+  </si>
+  <si>
+    <t>Screenshot 2022-11-22 102254.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kscs </t>
+  </si>
+  <si>
+    <t>Samsung Glaxy A13</t>
+  </si>
+  <si>
+    <t>Screenshot 2022-11-22 101810.png</t>
+  </si>
+  <si>
+    <t>mới</t>
+  </si>
+  <si>
+    <t>Iphone 13 pro max</t>
+  </si>
+  <si>
+    <t>Screenshot 2022-11-22 101041.png</t>
+  </si>
+  <si>
+    <t>iphone 13</t>
+  </si>
+  <si>
+    <t>Screenshot 2022-11-22 100707.png</t>
+  </si>
+  <si>
+    <t>Iphone 14 pro</t>
+  </si>
+  <si>
+    <t>Screenshot 2022-11-22 100441.png</t>
+  </si>
+  <si>
+    <t>Iphone 14</t>
+  </si>
+  <si>
+    <t>Screenshot 2022-11-22 100019.png</t>
+  </si>
+  <si>
+    <t>samsung galaxy</t>
+  </si>
+  <si>
+    <t>samsung-galaxy-note-2-den.jpg</t>
+  </si>
+  <si>
+    <t>cũ</t>
+  </si>
+  <si>
+    <t>Iphone X</t>
+  </si>
+  <si>
+    <t>"jdsvd"</t>
+  </si>
+  <si>
+    <t>iphone 9255</t>
+  </si>
+  <si>
+    <t>IPhone-3GS-32G-Mau-Den.jpg</t>
+  </si>
+  <si>
+    <t>thuận</t>
+  </si>
+  <si>
+    <t>samsung S* ultra</t>
+  </si>
+  <si>
+    <t>iPhone-4-16G-Quoc-Te-Trang.jpg</t>
+  </si>
+  <si>
+    <t>iphone 9231</t>
+  </si>
+  <si>
+    <t>HTC-Windows-Phone-8S.jpg</t>
+  </si>
+  <si>
+    <t>""thuận""</t>
   </si>
 </sst>
 </file>
@@ -380,7 +464,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,23 +497,278 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0">
+        <v>21000000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="0">
+        <v>5</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="0">
+        <v>45</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0">
+        <v>5000000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="0">
+        <v>44</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0">
+        <v>2</v>
+      </c>
+      <c r="D4" s="0">
+        <v>12000000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="0">
+        <v>7</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="0">
+        <v>43</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0">
         <v>1</v>
       </c>
-      <c r="D2" s="0">
-        <v>5000000</v>
-      </c>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0">
+      <c r="D5" s="0">
+        <v>30000000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0">
+        <v>8</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="0">
+        <v>42</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="0">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0">
+        <v>25000000</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="0">
+        <v>6</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="0">
+        <v>41</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0">
+        <v>30000000</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="0">
+        <v>5</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="0">
+        <v>40</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="0">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0">
+        <v>28000000</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="0">
+        <v>5</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="0">
+        <v>39</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="0">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0">
+        <v>40000000</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="0">
+        <v>9</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="0">
+        <v>38</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="0">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0">
+        <v>7000000</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="0">
+        <v>10</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="0">
+        <v>37</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0">
+        <v>2</v>
+      </c>
+      <c r="D11" s="0">
+        <v>90000000</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="0">
+        <v>123123132</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="0">
+        <v>36</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="0">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0">
+        <v>2147483647</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="0">
         <v>123</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>8</v>
+      <c r="G12" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="0">
+        <v>31</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="0">
+        <v>3</v>
+      </c>
+      <c r="D13" s="0">
+        <v>2147483647</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="0">
+        <v>123</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ExportExcel.xlsx
+++ b/ExportExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -38,61 +38,338 @@
     <t>comment</t>
   </si>
   <si>
-    <t>ip8</t>
-  </si>
-  <si>
-    <t>Screenshot 2022-11-22 101041.png</t>
-  </si>
-  <si>
-    <t>dat</t>
-  </si>
-  <si>
-    <t>Samsung Glaxy A13</t>
-  </si>
-  <si>
-    <t>Screenshot 2022-11-22 101810.png</t>
-  </si>
-  <si>
-    <t>mới</t>
-  </si>
-  <si>
-    <t>Iphone 13 pro max</t>
-  </si>
-  <si>
-    <t>iphone 13</t>
-  </si>
-  <si>
-    <t>Screenshot 2022-11-22 100707.png</t>
-  </si>
-  <si>
-    <t>Iphone 14 pro</t>
-  </si>
-  <si>
-    <t>Screenshot 2022-11-22 100441.png</t>
-  </si>
-  <si>
-    <t>Iphone 14</t>
-  </si>
-  <si>
-    <t>Screenshot 2022-11-22 100019.png</t>
-  </si>
-  <si>
-    <t>samsung galaxy</t>
-  </si>
-  <si>
-    <t>samsung-galaxy-note-2-den.jpg</t>
-  </si>
-  <si>
-    <t>cũ</t>
-  </si>
-  <si>
-    <t>Iphone X</t>
-  </si>
-  <si>
-    <t>Screenshot 2022-11-22 102457.png</t>
-  </si>
-  <si>
-    <t>"jdsvd"</t>
+    <t>Vivo Y33s</t>
+  </si>
+  <si>
+    <t>vivo3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiệu năng đủ sài
+Vivo Y33s được trang bị chip Helio G80 của MediaTek, đây là dòng chip chuyên dành cho những smartphone bình dân với hiệu năng chơi game ổn định nhờ sở hữu 8 nhân xử lý trong đó có 2 nhân hiệu năng cao Cortex-A75 xung nhịp 2.0GHz và 6 nhân Cortex-A55 xung nhịp 1.8 GHz, đi cùng là GPU Mali-G52. 
+Pin khỏe
+Dù có thiết kế mỏng nhẹ 8mm nhưng Vivo Y33s vẫn được trang bị viên pin 5000mAh hỗ trợ sử dụng lên tới cả ngày. Trải nghiệm thực tế chơi PUBG Mobile ở độ phân giải HD, tốc độ khung hình cao, độ sáng tối đa thì pin giảm 13% trong 34 phút chơi. 
+với thiết kế mỏng sang trọng, cụm máy ảnh đẹp, camera selfie ngon, hiệu năng sử dụng được, pin trâu thì Vivo Y33s sẽ là một lựa chọn đáng cân nhắc trong phân khúc tầm trung nếu bạn không đòi hỏi quá nhiều về hiệu năng chơi game lớn hay một bộ máy ảnh chuyên dụng hơn để ghi lại nhiều khoảnh khắc khác nhau. </t>
+  </si>
+  <si>
+    <t>Vivo V23 5G</t>
+  </si>
+  <si>
+    <t>vivo2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Điểm số đo được từ AnTuTu cho thấy vivo V23 5G đạt khoảng hơn 488 nghìn điểm, trong đó điểm CPU là hơn 129 nghìn điểm và GPU là 138 nghìn điểm, ngang ngửa với Snapdragon 778G.
+Điểm số từ Geekbench chuyên đo đạt về hiệu năng CPU cho thấy Dimensity 920 có hiệu năng đơn nhân là 739 điểm và đa nhân là 2122 điểm.
+Pin đủ dùng một ngày, sạc nhanh
+Sở hữu viên pin dung lượng 4200 mAh không quá lớn nhưng vivo V23 5G gây bất ngờ cho mình khi vẫn cho thời lượng sử dụng ổn thỏa với 6 – 7 tiếng sáng màn hình.
+Màn hình độ sáng cao, trong trẻo, tươi tắn
+Trở lại với phần màn hình tai thỏ của vivo V23 5G. Màn hình này có kích thước 6.44 inch vừa phải, tấm nền AMOLED, độ phân giải Full HD+ 2400×1080, tỉ lệ 20:9, tần số quét 90Hz, tần số cảm ứng 180Hz, hỗ trợ HDR10+, vân tay trong màn hình. 
+Camera selfie kép có chất ảnh nịnh mắt
+</t>
+  </si>
+  <si>
+    <t>Vivo X80</t>
+  </si>
+  <si>
+    <t>vivo1.png</t>
+  </si>
+  <si>
+    <t>Cấu hình cực mạnh với Dimensity 9000
+Vivo X80 là một trong số những điện thoại sớm nhất sử dụng MediaTek Dimensity 9000, cùng với chip chụp ảnh chuyên dụng V1 + của Vivo. Trong AnTuTu, Vivo X80 đạt 983.481 điểm, ngang bằng với điểm số của những chiếc máy dùng Snapdragon 8 Gen 1. Đừng quên Vivo X80 còn có tính năng mở rộng RAM lên tới 4GB.
+Thời lượng pin ấn tượng của Vivo X80
+Cùng với hiệu suất tuyệt vời, Vivo X80 cũng cung cấp thời lượng pin tốt. Máy sở hữu viên pin 4.500mAh và hỗ trợ sạc nhanh 80W.
+Máy ảnh Vivo X80
+Điện thoại Vivo X-series được biết đến với hiệu suất máy ảnh và X80 được đặt rất nhiều kỳ vọng. Vivo đã trang bị cho X80 một camera chính 50 MP với chống rung quang học (OIS), một camera 12 MP với zoom quang 2X, và một camera góc siêu rộng 12 MP.</t>
+  </si>
+  <si>
+    <t>Vivo Y15s</t>
+  </si>
+  <si>
+    <t>vivo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dù mặt lưng máy chỉ được làm từ nhựa nhưng với những đường kẻ dọc và hiệu ứng họa tiết tựa như những viên kim cương trông Vivo Y15s vẫn thật sang trọng và bóng bẩy so với những chiếc smartphone khác cùng phân khúc. 
+Cụm 2 camera AI sau ấn tượng Hiệu năng ổn định, đa nhiệm trơn tru
+Vivo Y15s có gì nổi bật với bộ vi xử lý Helio P35 của MediaTek? Thực sự trong phân khúc giá này khi Vivo Y15s được trang bị chipset này sẽ đem đến cho bạn những trải nghiệm giải trí, tác vụ tương đối tốt. Cùng với bộ nhớ RAM 3GB, ROM 32GB và hỗ trợ thêm thẻ nhớ ngoài, mọi tác vụ đa nhiệm trên máy sẽ mượt mà và nhanh hơn những gì bạn kỳ vọng. 
+Viên pin 5000mAh - Thỏa sức trải nghiệm 1 ngày dài </t>
+  </si>
+  <si>
+    <t>Nokia 110 Dual Sim</t>
+  </si>
+  <si>
+    <t>nokia2.png</t>
+  </si>
+  <si>
+    <t>Ở mức giá điện thoại trên dưới 1 triệu đồng, Nokia có 2 gương mặt sáng giá đó là Nokia 110 và 112. Hai máy này có thiết kế dạng thanh, 2 SIM, màn hình màu, bàn phím T9, kiểu dáng nhỏ gọn, có camera, Facebook và đặc biệt là có thể cài đặt thêm phần mềm và trò chơi từ kho ứng dụng Nokia Store.
+Cả hai đều có màn hình màu 1.8”, camera sau 0.3MP (đây là dòng camera VGA cải tiến cho hình ảnh sáng và sắc nét hơn hẳn) và bộ nhớ trống khoảng 10MB, hỗ trợ gắn thêm thẻ nhớ microSD lên đến 32GB. Cả hai đều hỗ trợ nghe nhạc MP3, riêng 112 có bộ loa ngoài lớn hơn, lên đến 105phon, thuộc dạng “đỉnh” trên thị trường. Cả hai đều trang bị công nghệ đổi sim siêu tốc độc quyền của Nokia, cho phép đổi sim mà không cần tháo pin tắt máy. Điều này vừa tăng tính tiện lợi, vừa giúp pin dùng lâu hơn.
+Với mục tiêu đem internet đến quảng đại công chúng, Nokia 110 và 112 là cách thức ít tốn kém nhất để trải nghiệm lợi ích của internet di động. Có lẽ vì vậy mà Mobifone chọn sản phẩm này để gia tăng lượng người dùng internet di động bằng cách tặng gói khuyến mãi 3 tháng miễn phí cước dữ liệu khi mua Nokia 112.</t>
+  </si>
+  <si>
+    <t>Nokia 110 4G</t>
+  </si>
+  <si>
+    <t>nokia1.png</t>
+  </si>
+  <si>
+    <t>Trên tay "cục gạch" Nokia 110 4G, bàn phím bấm êm, hoàn thiện tốt, camera làm màu là chính...
+So với Nokia 105 4G thì Nokia 110 4G có giá cao hơn do có thêm camera cũng như chất liệu bàn phím ngon hơn...còn ngoại hình gần tương đồng.</t>
+  </si>
+  <si>
+    <t>Nokia 215 4G</t>
+  </si>
+  <si>
+    <t>nokia.png</t>
+  </si>
+  <si>
+    <t>Thiết kế – Ngoại hình
+Nokia 215 4G có thiết kế nhỏ gọn, không khác biệt so với các mẫu thiết kế đặc trưng của dòng điện thoại này, màu sắc chủ yếu là đen, làm từ nhựa cứng, nút bấm làm từ cao su mềm.
+Tính năng – Thời lượng pin
+Đầu tiên phải nói đến tính năng nổi trội nhất là kết nối 4G, với tính năng này, người dùng có thể lướt Facebook, tìm kiếm thông tin trên Google khá thuận tiện. Ở thời đại smartphone chiếm ưu thế như hiện nay, trải nghiệm web bằng “huyền thoại” cũng là một điều thú vị.Thời lượng pin là điều nhiều người quan tâm, Nokia tuyên bố, với lượng pin đầy, Nokia 215 khi kết nối 4G có thể cung cấp đủ năng lượng để hoạt động suốt ngày dài.
+Nokia 215 4G có giá thành khá ổn, tính năng và tiện ích cũng đa dạng, thiết kế khá nhỏ gọn và đẹp mắt, 2 SIM 2 sóng, là một sản phẩm đáng để trải nghiệm.</t>
+  </si>
+  <si>
+    <t>Realme 8 Pro</t>
+  </si>
+  <si>
+    <t>realme3.png</t>
+  </si>
+  <si>
+    <t>"Trước khi đi vào đánh giá camera, mình sẽ điểm qua nhanh thông số camera Realme 8 Pro:
+Camera chính 108 MP có thể zoom 3x.
+Camera góc rộng 8 MP.
+Camera macro 2 MP.
+Camera đo chiều sâu 2 MP.
+Camera selfie 16 MP.
+Hiệu năng Realme 8 Pro vẫn còn tốt với Snapdragon 720G
+Dành cho những bạn nào chưa biết, bản tiêu chuẩn Realme 8 sử dụng con chip Helio G95, trong khi Realme 8 Pro thì sử dụng chip Qualcomm Snapdragon 720G, ở mặt bằng chung thì đây là hai con chip đều hướng đến nhu cầu chơi game, tản nhiệt tốt, GPU ở mức khá. Sau đây, mình sẽ tóm tắt thông số cấu hình Realme 8 Pro cho các bạn dễ theo dõi nha!
+Màn hình: Kích thước 6.4 inch, tấm nền Super AMOLED, độ phân giải Full HD+ (1.080 x 2.400 pixel).
+Camera sau: 108 MP + 8 MP + 2 MP + 2 MP.
+Camera selfie: 16 MP.
+RAM: 6 GB hoặc 8 GB.
+Bộ nhớ trong: 128 GB.
+CPU: Snapdragon 720G.
+GPU: Adreno 618.
+Dung lượng pin: 4.500 mAh."</t>
+  </si>
+  <si>
+    <t>Realme C11 2021</t>
+  </si>
+  <si>
+    <t>realme4.png</t>
+  </si>
+  <si>
+    <t>"Một trong những điểm khiến mình ấn tượng nhất khi nhìn vào thông số cấu hình Realme C11 (2021) đó chính là viên pin 5.000 mAh. Tất nhiên để chứng minh rằng pin Realme C11 (2021) có thể dùng được gần 9 tiếng thì mình sẽ sử dụng bài test pin theo tiêu chuẩn của TGDĐ và điều kiện cụ thể là như sau: 
+Trải nghiệm 4 tác vụ xoay vòng gồm: Chơi Liên Quân Mobile (thiết lập đồ họa như hình bên dưới), xem YouTube, lướt Facebook và sử dụng Chrome.
+Luân phiên sử dụng mỗi tác vụ 1 tiếng đồng hồ.
+Độ sáng màn hình: 100%.
+Đã lắp SIM vào máy.
+Cắm tai nghe có dây xuyên suốt.
+Bật WiFi và các thông báo từ mạng xã hội.
+Tắt chế độ tiết kiệm pin, màn hình thích ứng, GPS và Bluetooth
+Chấm từ 100% kể từ lúc rút sạc đến 0% pin."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Realme 8</t>
+  </si>
+  <si>
+    <t>realme2.png</t>
+  </si>
+  <si>
+    <t>"Realme 8 được trang bị viên pin 5.000 mAh và sau hơn 7 tháng sử dụng thì mình thấy máy đáp ứng rất tốt nhu cầu sử dụng của mình trong cả 1 ngày dài. Để cho các bạn dễ hình dung hơn về thời gian sử dụng pin của Realme 8 thì mình sẽ thực hiện một bài test pin theo tiêu chuẩn của TGDĐ và điều kiện cụ thể như sau:
+Trải nghiệm 4 tác vụ xoay vòng gồm: Chơi Liên Quân Mobile (thiết lập đồ họa như hình bên dưới), xem YouTube, lướt Facebook và sử dụng Chrome.
+Mỗi tác vụ sử dụng 1 tiếng đồng hồ.
+Độ sáng màn hình là 100%.
+Cắm tai nghe có dây xuyên suốt và bật âm lượng lên 100%.
+Bật Wifi và các thông báo từ mạng xã hội.
+Không bật tiết kiệm pin, màn hình thích ứng, GPS và Bluetooth.
+Chấm từ 100% đến 0%."</t>
+  </si>
+  <si>
+    <t>Realme C21Y</t>
+  </si>
+  <si>
+    <t>realme1.png</t>
+  </si>
+  <si>
+    <t>"Chiếc máy này cũng sở hữu cảm biến vân tay 1 chạm đặt ở mặt lưng giúp người dùng dễ dàng mở khoá máy nhanh chóng và bảo mật. 
+Về màn hình, Realme C21Y sở hữu màn hình kích thước lớn 6.5 inches, độ phân giải HD+ (720 x 1600 pixels). Camera selfie của chiếc máy này có độ phân giải 5MP, f/2.2.
+Khả năng hiển thị của máy tương đối tốt, màu sắc trong trẻo và khá dịu mắt. Nhìn chung, so với mức giá thì chiếc máy này có màn hình ở mức khá, kích thước lớn, chi tiết hiển thị trên màn hình rõ ràng. 
+Realme C21Y có đến 3 camera phía sau bao gồm camera chính 13MP, camera cận cảnh 2MP và camera đo chiều sâu 2MP. 
+Về mặt hiệu năng, Realme C21Y được trang bị bộ vi xử lý khá lạ là Spreadtrum T610 được sản xuất trên tiến trình 12nm. Con chip này tuy lạ lẫm với nhiều người nhưng cũng thể hiện sức mạnh khá tốt. Chiếc máy này có dung lượng RAM là 3GB và 32GB bộ nhớ lưu trữ. "</t>
+  </si>
+  <si>
+    <t>Realme 9 Pro 5G</t>
+  </si>
+  <si>
+    <t>realme.png</t>
+  </si>
+  <si>
+    <t>Realme 9 Pro sở hữu thiết kế được làm mới hoàn toàn. Hiệu ứng quang học thay đổi màu sắc cùng với đó là hiệu ứng “ánh sao” tạo nên một mặt lưng vô cùng huyền ảo thu hút mọi ánh mắt. Tuy nhiên để đem tới vẻ đẹp này, nhà sản xuất đến từ Trung Quốc đã phải sử dụng nhựa bóng thay vì nhựa nhám như trên Realme 8 Pro, điều này chắc chắn sẽ khiến mặt lưng dễ bị bẩn hơn do bám mồ hồi và dấu vân tay.
+Về thông số, Realme 9 Pro được trang bị màn hình IPS LCD với kích thước 6.6 inch hỗ trợ độ phân giải Full HD+ và tần số quét 120Hz, độ sáng khoảng 600 nít.
+Realme 9 Pro được trang bị bộ vi xử lý Qualcomm Snapdragon 695 kèm 8GB RAM. Tuy đây chỉ là một con chip thuộc Snapdragon 6 Series nhưng nó đạt khoảng 400 ngàn điểm thông qua bài kiểm tra của Antutu Benchmark, hứa hẹn sẽ đem tới nhiều sự bất ngờ.
+Realme 9 Pro sở hữu cụm ba camera bao gồm cảm biến chính 64MP, ống kính góc siêu rộng 8MP và camera macro 2MP. Đây là một điểm “cải lùi” so với sản phẩm tiền nhiệm bởi vì cảm biến chính của Realme 8 Pro có cảm biến chính độ phân giải lên tới 108MP.</t>
+  </si>
+  <si>
+    <t>OPPO Reno7 4G</t>
+  </si>
+  <si>
+    <t>oppo4.png</t>
+  </si>
+  <si>
+    <t>OPPO Reno7 4G là một chiếc điện thoại tối ưu trong tầm giá tuy hiệu năng không quá mạnh mẽ nhưng vẫn có thể đáp ứng được các nhu cầu giải trí cơ bản. Ngoài ra đây là một chiếc điện thoại có thiết kế đẹp, mặt lưng độc đáo, dung lượng pin lớn, sạc nhanh và có giá vô cùng hợp lý. 
+Màn hình chất lượng, thoả sức khám phá và giải trí - 6.43 inches, AMOLED, Full HD+
+Camera chất lượng với cảm biến thế hệ mới - Cụm 3 camera 64 MP, đa dạng chế độ chụp
+Chiến game ổn định nhờ con chip mạnh mẽ - Snapdragon™ 680, RAM 8GB
+Không lo gián đoạn với viên pin lớn 4500 mAh, sạc nhanh SUPERVOOCTM 33W</t>
+  </si>
+  <si>
+    <t>OPPO Reno7 Z 5G</t>
+  </si>
+  <si>
+    <t>oppo3.png</t>
+  </si>
+  <si>
+    <t>Trong khi đánh giá OPPO Reno7 Z 5G, mình có cầm thử sản phẩm trên tay và nhận thấy nó rất mỏng nhẹ. Bộ đôi trọng lượng chỉ 173 g đi kèm độ dày 7.5 mm hứa hẹn sẽ giúp bạn cầm cực dễ dàng. Smartphone mình đang dùng nặng đến 213 g nên siêu phẩm OPPO này khiến mình vô cùng ấn tượng bởi độ nhẹ nhàng và linh hoạt.
+Màn hình 60 Hz khá ổn
+Tiếp theo, chất lượng hiển thị là điều rất đáng chú ý khi mình đánh giá OPPO Reno7 Z 5G. Smartphone sở hữu màn hình kích thước 6.43 inch, đủ dùng đối với mọi thao tác và trải nghiệm
+Điện thoại OPPO vừa ra mắt được trang bị bộ 4 máy ảnh chất lượng, gồm có camera chính 64 MP và khẩu độ f/1.7, camera macro 2 MP kèm khẩu độ f/2.4, camera chiều sâu độ phân giải 2 MP và một camera trước 16 MP có khẩu độ f/2.4.
+Chip Snapdragon 695 xử lý game tương đối mượt
+Dung lượng pin 4.500 mAh khá lớn so với thiết kế máy</t>
+  </si>
+  <si>
+    <t>Oppo A54</t>
+  </si>
+  <si>
+    <t>oppo2.png</t>
+  </si>
+  <si>
+    <t>Điện thoại OPPO A54 được trang bị tấm nền IPS LCD, độ phân giải HD+ với kích thước 6.51 inch. Bởi thế mà khả năng hiển thị của chiếc điện thoại này không hề tốt như nhiều người dùng mong đợi. Phần màu sắc mà điện thoại OPPO A54 mang lại khá nhợt nhạt và chắc chắn với những người dùng đã quen với gu màu sắc sống động, nịnh mắt thì chắc chắn không thích điều này. Nữa là khả năng hiển thị ngoài trời của điện thoại OPPO A54 khá kém, rất khó để nhìn rõ mọi thông tin hiển thị nếu trời có nắng.
+Điện thoại OPPO A54 có RAM 4GB và bộ nhớ trong 128GB về cơ bản cũng hỗ trợ được một không gian trải nghiệm vừa đủ với những người dùng cơ bản ở phân khúc này.
+Viên pin của điện thoại OPPO A54 có dung lượng lên tới 5000mAh và đúng như bản chất của những chiếc điện thoại thông minh trong phân khúc giá rẻ, pin điện thoại OPPO A54 được tối ưu rất tốt. Nếu bạn sạc đầy cho điện thoại OPPO A54 thì chí ít cũng phải dùng được một ngày, thậm chí là hơn cả thế.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oppo Reno6 5G </t>
+  </si>
+  <si>
+    <t>oppo1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiết kế OPPO Reno6 5G hợp xu thế với khung viền vuông vức, màu sắc tuyệt đẹp Tất cả là nhờ vào phần khung viền được làm vát phẳng, các góc được bo cong vừa phải để máy vẫn giữ được sự nam tính và cứng cáp trong thiết kế.
+OPPO Reno6 5G cấu hình vẫn cực ngon với chip Dimensity 900
+Màn hình: Kích thước 6.43 inch, tấm nền AMOLED, độ phân giải Full HD+ (1.800 x 2.400 pixel), tần số quét 90 Hz.
+CPU: Dimensity 900 5G 8 nhân (tiến trình 6 nm).
+GPU: Mali-G68 MC4.
+RAM: 8 GB.
+Bộ nhớ trong: 128 GB.
+Hệ điều hành: Android 11 (ColorOS 11.3).
+Pin: 4.300 mAh, sạc nhanh SuperVOOC 2.0 65 W.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oppo A17K </t>
+  </si>
+  <si>
+    <t>oppo.png</t>
+  </si>
+  <si>
+    <t>Thiết kế trẻ trung đổi mới liên tục 
+Màn hình 60Hz khá ổn  thiết kế hình giọt nước với kích thước 6.56 inch HD+ trên nền LCD. Điều này giúp cung cấp màn hình rộng rãi, hiển thị chi tiết thông tin rõ ràng, bạn có thể thoả sức chơi game mà không bị hạn chế. 
+Camera cũng là một trong những yếu tố mà bạn không thể bỏ qua khi đánh giá OPPO A17K. Máy ảnh của thiết bị được trang bị 2 camera trước và phía sau máy. Ở mặt sau là cụm camera có hình dạng viên thuốc được làm phẳng và ống kính cũng không hề bị nhô lên.
+MediaTek Helio G35 8 nhân xử lý vẫn khá ổn
+Dung lượng pin 5,000Ah khá lớn so với thiết kế máy</t>
+  </si>
+  <si>
+    <t>xiaomi MTB Pad 5</t>
+  </si>
+  <si>
+    <t>xiaomi3.png</t>
+  </si>
+  <si>
+    <t>Xiaomi Pad 5 xứng đáng là chiếc máy tính bảng có thiết kế hấp dẫn nhất trong tầm giá dưới 10 triệu đồng. Ngay khi cầm sản phẩm trên tay mình liên tưởng ngay đến chiếc iPad Pro có mức giá trên 20 triệu đồng, thậm chí cảm giác cầm vào còn chắc chắn, cứng cáp hơn.  Màn hình 16:10 phù hợp công việc lẫn giải trí
+Thực sự mà nói thì mình thích một chiếc máy tính bảng có màn hình tỷ lệ vuông hơn kiểu iPad, khi đó dùng ở chế độ ngang sẽ hiển thị được nhiều nội dung hơn, làm việc cũng đã hơn. Nhưng theo Xiaomi thì họ làm màn hình 16:10 là để cân bằng giữa giải trí và công việc, mà cụ thể ở đây là phục vụ nhu cầu xem phim, xem YouTube.loa Dolby Atmos xem phim quá đãHiệu năng rất ngon trong tầm giá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi Redmi A1 </t>
+  </si>
+  <si>
+    <t>xiaomi2.png</t>
+  </si>
+  <si>
+    <t>Máy cầm khá đầm tay.
+Không chỉ thiết kế đẹp, Redmi A1 còn có một ưu điểm vượt trội khác đó là sở hữu cụm camera kép hiếm có trong phân khúc điện thoại 2 triệu đồng.
+Về mặt trước, Xiaomi trang bị cho Redmi A1 màn hình khá lớn 6.52 inch, sử dụng tấm nền IPS LCD, độ phân giải HD+ và tần số quét 60Hz. Là một smartphone giá rẻ nên phần cứng Redmi A1 khá khiêm tốn. Máy chỉ được trang bị vi xử lý Helio P22 của MediaTek. Tuy nhiên, với cấu trúc 4 lõi Cortex-A53 tốc độ 2.0 GHz, và GPU IMG PowerVR GE8320 thì hiệu năng của Redmi A1 cũng không hề tệ</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi 10</t>
+  </si>
+  <si>
+    <t>xiaomi1.png</t>
+  </si>
+  <si>
+    <t>Thiết kế Xiaomi Redmi 10 khá quen thuộc, nếu quan sát kỹ sẽ thấy máy khá giống với Redmi Mi 11 và Redmi Note 10. Mặt trước của máy được trang bị màn hình đục lỗ thời thượng, hai cạnh viền khá mỏng được bo cong mềm mại tạo cảm giác thoải mái cho người dùng khi sử dụng. Cạnh phải được bố trí nút nguồn kiêm cảm biến vân tay và phím điều chỉnh âm lượng. Redmi 10 được trang bị màn hình đục lỗ 6.5 inch, sử dụng tấm nền IPS LCD, độ phân giải full HD+, tần số quét 90Hz, tỷ lệ khung hình 20:9, độ sáng tối đa 400 nits đem đến chất lượng hiển thị rất tốt.Cung cấp sức mạnh cho Redmi 10 hoạt động là chip Helio G88 8 nhân trong đó có 2 nhân tốc độ cao 2.0Ghz và 6 nhân tốc độ thấp 1.8Ghz. Máy được trang bị GPU Mali G52 MC2 cho tốc độ 1Ghz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi 12 </t>
+  </si>
+  <si>
+    <t>xiaomi.png</t>
+  </si>
+  <si>
+    <t>Chip Snapdragon 8 Gen 1 
+Công nghệ màn hình AMOLED
+Hệ điều hành Android 12, MIUI 13
+Độ phân giải màn hình: 1080 x 2400 pixels (FullHD+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone 12 mini </t>
+  </si>
+  <si>
+    <t>baitap6.png</t>
+  </si>
+  <si>
+    <t>iPhone 12 Mini được trang bị dung lượng RAM 4 GB và bộ nhớ trong 64 GB đủ khả năng để người dùng lưu trữ thả ga và tốc độ giải quyết thao tác nhanh chóng trên hệ điều hành iOS 15 (12/2021). Thiết kế sang trọng, cao cấp Màn hình OLED Super Retina XDR siêu sắc nét Camera kép thách thức mọi giới hạn ban đêmVi xử lý Apple A14 khẳng định sức mạnh dẫn đầu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone 13 mini </t>
+  </si>
+  <si>
+    <t>baitap5.png</t>
+  </si>
+  <si>
+    <t>Nhỏ – siêu nhỏ, gọn – siêu gọn, nhẹ – siêu nhẹ là những cảm nhận đầu tiên khi mình cầm chiếc iPhone 13 mini trên tay.Đánh giá hiệu năng: Vô đối
+Nếu phải tìm một chiếc smartphone mạnh hơn iPhone 13 mini thì có lẽ đó chỉ có thể là… iPhone 13 Pro/Pro Max.</t>
+  </si>
+  <si>
+    <t>samsung galaxy z flip 4</t>
+  </si>
+  <si>
+    <t>baitap3.png</t>
+  </si>
+  <si>
+    <t>thiết kế nhỏ gọn, bền bỉ hơn Màn hình chính của Galaxy Z Flip4 vẫn có kích thước 6.7 inch, sử dụng tấm nền Dynamic AMOLED 2X với độ phân giải Full HD+ (2.640x1.080 pixel) cho mật độ điểm ảnh 425 ppi.Camera chính góc rộng 12 MP.
+Camera góc siêu rộng 12 MP.
+Camera trước 10 MP.  Samsung Galaxy Z Flip4 hiệu năng mạnh mẽ cùng thời lượng pin lâu hơn</t>
+  </si>
+  <si>
+    <t>samsung galaxy A23</t>
+  </si>
+  <si>
+    <t>baitap1.png</t>
+  </si>
+  <si>
+    <t>Galaxy A23 được trang bị tấm nền PLS TFT LCD với kích thước 6.6 inch có độ phân giải Full HD+ (1080 x 2408 Pixels) mang lại trải nghiệm cho những phút giây giải trí như xem phim, chơi game rất tốt bởi hình ảnh được thể hiện chi tiết, màu sắc rực rỡ, độ tương phản cao
+Hệ thống camera:
+Camera sau 50.0 MP F/1.8 + 5.0 MP F/2.2 + 2.0 MP F/2.4 + 2.0 MP F/2.4
+Camera sau lấy nét tự động + OIS + zoom camera phía sau kỹ thuật số lên đến 10x
+Camera trước 8.0 MP, F/2.2
+Độ phân giải quay video FHD (1920 x 1080)@30fps
+Chuyển động chậm @HD 120fps
+RAM 6 GB
+Kích thước ROM 128GB
+Bộ nhớ có sẵn 104GB
+Hỗ trợ bộ nhớ ngoài MicroSD (Tối đa 1TB)
+Số lượng SIM: Sim kép
+Kích thước SIM: Nano-SIM (4FF)
+Loại khe cắm SIM: SIM 1 + SIM 2 + MicroSD</t>
   </si>
 </sst>
 </file>
@@ -431,7 +708,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,210 +717,601 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2">
+      <c r="A2" s="0">
+        <v>74</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0">
+        <v>5000000</v>
+      </c>
+      <c r="D2" s="0">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="0">
+        <v>8</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="0">
+        <v>73</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0">
+        <v>10000000</v>
+      </c>
+      <c r="D3" s="0">
+        <v>7</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0">
+        <v>12</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="0">
+        <v>72</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0">
+        <v>15000000</v>
+      </c>
+      <c r="D4" s="0">
+        <v>7</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="0">
+        <v>9</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="0">
+        <v>71</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0">
+        <v>2000000</v>
+      </c>
+      <c r="D5" s="0">
+        <v>7</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0">
+        <v>14</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="0">
+        <v>70</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="0">
+        <v>400000</v>
+      </c>
+      <c r="D6" s="0">
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="0">
+        <v>4</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="0">
+        <v>800000</v>
+      </c>
+      <c r="D7" s="0">
+        <v>6</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="0">
+        <v>4</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="0">
+        <v>68</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="0">
+        <v>900000</v>
+      </c>
+      <c r="D8" s="0">
+        <v>6</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="0">
+        <v>2</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="0">
+        <v>67</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="0">
+        <v>4000000</v>
+      </c>
+      <c r="D9" s="0">
+        <v>5</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="0">
+        <v>11</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="0">
+        <v>66</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="0">
+        <v>10000000</v>
+      </c>
+      <c r="D10" s="0">
+        <v>5</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="0">
+        <v>3</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="0">
+        <v>65</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="0">
+        <v>4000000</v>
+      </c>
+      <c r="D11" s="0">
+        <v>5</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="0">
+        <v>10</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="0">
+        <v>64</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="0">
+        <v>20000000</v>
+      </c>
+      <c r="D12" s="0">
+        <v>5</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="0">
+        <v>5</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="0">
+        <v>63</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="0">
+        <v>6000000</v>
+      </c>
+      <c r="D13" s="0">
+        <v>5</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="0">
+        <v>4</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="0">
+        <v>62</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="0">
+        <v>7000000</v>
+      </c>
+      <c r="D14" s="0">
+        <v>4</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="0">
+        <v>10</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="0">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="0">
+        <v>6000000</v>
+      </c>
+      <c r="D15" s="0">
+        <v>4</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="0">
+        <v>5</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="0">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="0">
+        <v>4000000</v>
+      </c>
+      <c r="D16" s="0">
+        <v>4</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="0">
+        <v>5</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="0">
+        <v>59</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="0">
+        <v>7000000</v>
+      </c>
+      <c r="D17" s="0">
+        <v>4</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="0">
+        <v>6</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="0">
+        <v>58</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="0">
+        <v>3000000</v>
+      </c>
+      <c r="D18" s="0">
+        <v>4</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="0">
+        <v>5</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="0">
+        <v>57</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10000000</v>
+      </c>
+      <c r="D19" s="0">
+        <v>3</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="0">
+        <v>4</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="0">
+        <v>56</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="0">
+        <v>10000000</v>
+      </c>
+      <c r="D20" s="0">
+        <v>3</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="0">
+        <v>3</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="0">
+        <v>55</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="0">
+        <v>20000000</v>
+      </c>
+      <c r="D21" s="0">
+        <v>3</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="0">
+        <v>10</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="0">
+        <v>54</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="0">
+        <v>1499000</v>
+      </c>
+      <c r="D22" s="0">
+        <v>3</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="0">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>213</v>
-      </c>
-      <c r="D2">
+      <c r="G22" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="0">
+        <v>53</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="0">
+        <v>7000000</v>
+      </c>
+      <c r="D23" s="0">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E23" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="0">
+        <v>7</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="0">
+        <v>52</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="0">
+        <v>21000000</v>
+      </c>
+      <c r="D24" s="0">
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="0">
+        <v>7</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="0">
+        <v>51</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="0">
+        <v>17000000</v>
+      </c>
+      <c r="D25" s="0">
+        <v>2</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="0">
+        <v>7</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="0">
+        <v>50</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="0">
+        <v>13000000</v>
+      </c>
+      <c r="D26" s="0">
+        <v>2</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="0">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>12000000</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>30000000</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>25000000</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>30000000</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <v>28000000</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>40000000</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9">
-        <v>7000000</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
+      <c r="G26" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
